--- a/deliverable3/burndown_chart/Burndown_Chart_Sprint4.xlsx
+++ b/deliverable3/burndown_chart/Burndown_Chart_Sprint4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DATE</t>
   </si>
@@ -33,6 +33,18 @@
   </si>
   <si>
     <t>ACTUAL REMAINING</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -132,6 +144,512 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2125015568133098E-2"/>
+          <c:y val="0.101546863803378"/>
+          <c:w val="0.93854282274469703"/>
+          <c:h val="0.69733475672799705"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ANTICIPATED REMAINING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5A8-4702-A07A-092BEE0F2C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACTUAL REMAINING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5A8-4702-A07A-092BEE0F2C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2123968312"/>
+        <c:axId val="2123971736"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2123968312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123971736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2123971736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="65"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123968312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0ABB78-3E41-4B0B-AB24-7BF5D0ABD146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,15 +947,304 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
@@ -455,10 +1262,10 @@
         <v>42681</v>
       </c>
       <c r="B2" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -466,10 +1273,10 @@
         <v>42682</v>
       </c>
       <c r="B3" s="2">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="C3" s="4">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -480,7 +1287,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="4">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -488,10 +1295,10 @@
         <v>42684</v>
       </c>
       <c r="B5" s="2">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="C5" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -499,10 +1306,10 @@
         <v>42685</v>
       </c>
       <c r="B6" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -510,10 +1317,10 @@
         <v>42686</v>
       </c>
       <c r="B7" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -524,10 +1331,11 @@
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>